--- a/saham_ipo-backtest.xlsx
+++ b/saham_ipo-backtest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adira4-my.sharepoint.com/personal/edy_salim_adira_co_id/Documents/Learning Zone/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="180" documentId="11_F25DC773A252ABDACC10481DF99B691A5ADE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A92B433C-44D9-478A-870E-2523E2BE27C8}"/>
+  <xr:revisionPtr revIDLastSave="181" documentId="11_F25DC773A252ABDACC10481DF99B691A5ADE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07E7A78A-0CD1-4BD5-A249-A679A2FCEDC3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Params" sheetId="5" r:id="rId1"/>
@@ -626,7 +626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71B3E0F-3425-4EE3-AE1B-950EB6F693BF}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -1422,51 +1422,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B41B15-A736-445A-84F3-67432D9F5D6B}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <f>A2+A3</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <f t="shared" ref="A5:A7" si="0">A3+A4</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/saham_ipo-backtest.xlsx
+++ b/saham_ipo-backtest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adira4-my.sharepoint.com/personal/edy_salim_adira_co_id/Documents/Learning Zone/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="181" documentId="11_F25DC773A252ABDACC10481DF99B691A5ADE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07E7A78A-0CD1-4BD5-A249-A679A2FCEDC3}"/>
+  <xr:revisionPtr revIDLastSave="189" documentId="11_F25DC773A252ABDACC10481DF99B691A5ADE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3AE8BFB-6892-43A9-8995-3387FD59906F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Params" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="85">
   <si>
     <t>ARCI</t>
   </si>
@@ -293,6 +293,9 @@
   </si>
   <si>
     <t>1d</t>
+  </si>
+  <si>
+    <t>Verbose</t>
   </si>
 </sst>
 </file>
@@ -624,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71B3E0F-3425-4EE3-AE1B-950EB6F693BF}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,7 +651,7 @@
         <v>77</v>
       </c>
       <c r="B2" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -665,6 +668,14 @@
       </c>
       <c r="B4" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1424,7 +1435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B41B15-A736-445A-84F3-67432D9F5D6B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
